--- a/assets/templates/vendor_upload_template.xlsx
+++ b/assets/templates/vendor_upload_template.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Libra\Backend\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EC9B7C-D97D-49DE-A02B-091234DFBF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D597BAB6-18AD-4FF5-9DF8-E4701E2C9CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vendor" sheetId="1" r:id="rId1"/>
+    <sheet name="vendor_group" sheetId="2" r:id="rId2"/>
+    <sheet name="vendor_group_details" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Zip Code</t>
   </si>
@@ -85,6 +87,18 @@
   </si>
   <si>
     <t>vendor_id</t>
+  </si>
+  <si>
+    <t>vg_code</t>
+  </si>
+  <si>
+    <t>vg_vendor_id</t>
+  </si>
+  <si>
+    <t>Vendor Group Code</t>
+  </si>
+  <si>
+    <t>vg_desc</t>
   </si>
 </sst>
 </file>
@@ -404,11 +418,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -472,6 +491,76 @@
       </c>
       <c r="J2" t="s">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B8C103-13AE-4ACB-9276-A78C1366C73C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA75C80-FDB3-4089-B7ED-CE285475CB0A}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/assets/templates/vendor_upload_template.xlsx
+++ b/assets/templates/vendor_upload_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Libra\Backend\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D597BAB6-18AD-4FF5-9DF8-E4701E2C9CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF56502-9F3F-401A-9CB7-D755F57B77EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vendor" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Zip Code</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>vg_desc</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
 </sst>
 </file>
@@ -500,10 +506,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B8C103-13AE-4ACB-9276-A78C1366C73C}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,20 +518,26 @@
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -535,10 +547,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA75C80-FDB3-4089-B7ED-CE285475CB0A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,20 +559,26 @@
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>21</v>
       </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/assets/templates/vendor_upload_template.xlsx
+++ b/assets/templates/vendor_upload_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Libra\Backend\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF56502-9F3F-401A-9CB7-D755F57B77EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6C74D9-3EDC-489F-8453-4DA8C213A4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vendor" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Zip Code</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>ascii_vendor_code</t>
+  </si>
+  <si>
+    <t>ASCII Vendor Code</t>
   </si>
 </sst>
 </file>
@@ -422,20 +428,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -466,8 +473,11 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -497,6 +507,9 @@
       </c>
       <c r="J2" t="s">
         <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -508,17 +521,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B8C103-13AE-4ACB-9276-A78C1366C73C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -529,7 +542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -553,13 +566,13 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -570,7 +583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>

--- a/assets/templates/vendor_upload_template.xlsx
+++ b/assets/templates/vendor_upload_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Libra\Backend\assets\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Libra\System\latest\rata_backend\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6C74D9-3EDC-489F-8453-4DA8C213A4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7151837A-E0ED-45E2-9407-2C57D3E2CA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Zip Code</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>ASCII Vendor Code</t>
+  </si>
+  <si>
+    <t>is_ic</t>
+  </si>
+  <si>
+    <t>Is IC?</t>
   </si>
 </sst>
 </file>
@@ -428,21 +434,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -476,8 +483,11 @@
       <c r="K1" t="s">
         <v>26</v>
       </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -510,6 +520,9 @@
       </c>
       <c r="K2" t="s">
         <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
